--- a/assets/files/CV12.xlsx
+++ b/assets/files/CV12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="5508"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1996 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>37.688442211055275</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>12.060301507537689</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>49.748743718592962</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>0.50251256281407031</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>34.042553191489361</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>4.7872340425531918</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>58.51063829787234</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>2.6595744680851063</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>188</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>35.917312661498705</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>8.5271317829457356</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>54.00516795865633</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>1.2919896640826873</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>0.25839793281653745</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="3">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>35.887096774193552</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>25.403225806451612</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>26.612903225806452</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>12.096774193548388</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>248</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>36.666666666666664</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>36.666666666666664</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>17.5</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>120</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>36.141304347826086</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>29.076086956521738</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>20.652173913043477</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>13.858695652173912</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>0.27173913043478259</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>41.463414634146339</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>6.6518847006651889</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>46.563192904656319</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>3.5476718403547673</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>1.7738359201773837</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>451</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>40</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>2.4489795918367347</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>55.102040816326529</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>2.4489795918367347</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
         <v>245</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>40.948275862068968</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>5.1724137931034484</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>49.568965517241381</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>3.1609195402298851</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>64.556962025316452</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>5.0632911392405067</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>30.379746835443036</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>57.553956834532372</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>4.3165467625899279</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>37.050359712230218</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>0.71942446043165464</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.35971223021582732</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>59.103641456582636</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>4.4817927170868348</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>35.574229691876752</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>0.56022408963585435</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.28011204481792717</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>42.458100558659218</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>11.173184357541899</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>41.340782122905026</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>1.6759776536312849</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>3.3519553072625698</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>179</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>39.622641509433961</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>8.4905660377358494</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>49.056603773584904</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>2.8301886792452828</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>106</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>41.403508771929822</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>10.175438596491228</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>44.210526315789473</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>1.0526315789473684</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>3.1578947368421053</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>36.410256410256409</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>58.46153846153846</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>1.0256410256410255</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>1.5384615384615385</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>32.863849765258216</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>64.788732394366193</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>0.93896713615023475</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>34.558823529411768</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>61.764705882352942</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>0.98039215686274506</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>0.73529411764705888</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>34.883720930232556</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>62.790697674418603</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>31.498470948012233</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>3.669724770642202</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>64.525993883792054</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>0.3058103975535168</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>31.891891891891891</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>3.2432432432432434</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>64.324324324324323</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>0.54054054054054057</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>30.487804878048781</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>7.7235772357723578</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>56.91056910569106</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>2.845528455284553</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>2.0325203252032522</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>46.043165467625897</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>13.669064748201439</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>39.568345323741006</v>
       </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>0.71942446043165464</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>36.103896103896105</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>9.8701298701298708</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>50.649350649350652</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>1.8181818181818181</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>1.5584415584415585</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>36.781609195402297</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>5.7471264367816088</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>55.172413793103445</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>2.2988505747126435</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>31.316725978647685</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>2.4911032028469751</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>65.12455516014235</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>0.71174377224199292</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>0.35587188612099646</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>32.608695652173914</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>3.2608695652173911</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>62.771739130434781</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>1.0869565217391304</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>0.27173913043478259</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>15</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>81.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>1.5</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>12.154696132596685</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>1.6574585635359116</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>84.530386740331494</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>1.6574585635359116</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>13.648293963254593</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>1.837270341207349</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>82.939632545931758</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>1.5748031496062993</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>44.690265486725664</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>36.283185840707965</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>10.619469026548673</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>8.4070796460176993</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>61.038961038961041</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>16.883116883116884</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>3.8961038961038961</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>51.315789473684212</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>28.94736842105263</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>13.157894736842104</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>6.5789473684210522</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>42.307692307692307</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>12.820512820512821</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>34.615384615384613</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>7.6923076923076925</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>234</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>25</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>0.92592592592592593</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>71.296296296296291</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>1.8518518518518519</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>0.92592592592592593</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>108</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>36.842105263157897</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>9.064327485380117</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>46.198830409356724</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>2.3391812865497075</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>5.5555555555555554</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>40.16393442622951</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>7.3770491803278686</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>48.360655737704917</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>2.459016393442623</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>122</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>32.799999999999997</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>5.6</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>60</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>0.8</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>0.8</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>250</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>35.215053763440864</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>6.182795698924731</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>56.182795698924728</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>1.3440860215053763</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>1.075268817204301</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>27.083333333333332</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>18.75</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>47.916666666666664</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>6.25</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>36.227544910179638</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>20.359281437125748</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>37.724550898203596</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>5.6886227544910177</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>334</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>35.078534031413611</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>20.157068062827225</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>39.005235602094238</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>5.7591623036649215</v>
       </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>72</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <v>27.333333333333332</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>48.305084745762713</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>0.42372881355932202</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>51.271186440677965</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>57.512953367875646</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>0.25906735751295334</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>41.968911917098445</v>
       </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
         <v>0.25906735751295334</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>28.608923884514436</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>5.5118110236220472</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>62.467191601049869</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>3.1496062992125986</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>0.26246719160104987</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>381</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>28.608923884514436</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>5.5118110236220472</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>62.467191601049869</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>3.1496062992125986</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>0.26246719160104987</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>43.589743589743591</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>23.076923076923077</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>30.76923076923077</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>39.589442815249264</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>8.7976539589442808</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>48.97360703812317</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>2.0527859237536656</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>0.5865102639296188</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>341</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>40</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>10.263157894736842</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>47.10526315789474</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>1.8421052631578947</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>0.78947368421052633</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>23.563218390804597</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>10.919540229885058</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>65.517241379310349</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>27.3224043715847</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>71.038251366120221</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>25.490196078431371</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>6.1624649859943981</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>68.347338935574228</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>53.125</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>6.25</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>34.375</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>6.25</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>32</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>45.652173913043477</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>8.1521739130434785</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>42.391304347826086</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>3.2608695652173911</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>0.54347826086956519</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>368</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>46.25</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>8</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>41.75</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>3.5</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>0.5</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>36.453201970443352</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>1.9704433497536946</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>58.620689655172413</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>1.9704433497536946</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>0.98522167487684731</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>35</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>3.8888888888888888</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>58.888888888888886</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>35.770234986945169</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>2.8720626631853787</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>58.746736292428196</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>1.3054830287206267</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>1.3054830287206267</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>36.994219653179194</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>1.7341040462427746</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>57.225433526011564</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>1.1560693641618498</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>2.8901734104046244</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>41.951219512195124</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>3.4146341463414633</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>52.195121951219512</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>0.48780487804878048</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>1.9512195121951219</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>39.682539682539684</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>2.6455026455026456</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>54.4973544973545</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>0.79365079365079361</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>2.3809523809523809</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="3">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>38.297872340425535</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>6.9148936170212769</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>51.063829787234042</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>3.7234042553191489</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>38.974358974358971</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>4.615384615384615</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>54.871794871794869</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>1.5384615384615385</v>
       </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>38.642297650130551</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>5.7441253263707575</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>53.002610966057439</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>2.6109660574412534</v>
       </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4">
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>41.5625</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>5</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>51.5625</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>1.875</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>46.774193548387096</v>
       </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
         <v>53.225806451612904</v>
       </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>42.408376963350783</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>4.1884816753926701</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>51.832460732984295</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>1.5706806282722514</v>
       </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4">
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>28.723404255319149</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>4.2553191489361701</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>63.297872340425535</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>1.0638297872340425</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>2.6595744680851063</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>31.770833333333332</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>3.125</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>61.458333333333336</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>1.5625</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>30.263157894736842</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>3.6842105263157894</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>62.368421052631582</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>1.3157894736842106</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>2.3684210526315788</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>38.194444444444443</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>14.0625</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>46.701388888888886</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>0.69444444444444442</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>0.34722222222222221</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>45.05169867060561</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>6.6469719350073859</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>46.824224519940913</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>0.73855243722304287</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>0.73855243722304287</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1354</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>43.005181347150256</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>8.8601036269430047</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>46.787564766839381</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>0.72538860103626945</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>0.62176165803108807</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="3">
         <v>1930</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>56.521739130434781</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>27.536231884057973</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>11.594202898550725</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>4.3478260869565215</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>138</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>64.716981132075475</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>11.69811320754717</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>20.566037735849058</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>1.8867924528301887</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>1.1320754716981132</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>530</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>63.023952095808383</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>14.970059880239521</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>18.712574850299401</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>2.3952095808383231</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.89820359281437123</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="3">
         <v>668</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>43.609022556390975</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>12.781954887218046</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>42.857142857142854</v>
       </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
         <v>0.75187969924812026</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>40.837696335078533</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>7.8534031413612562</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>47.120418848167539</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>1.0471204188481675</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>3.1413612565445028</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>191</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>41.97530864197531</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>9.8765432098765427</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>45.370370370370374</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>0.61728395061728392</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>2.1604938271604937</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="3">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>32.051282051282051</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>22.649572649572651</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>40.17094017094017</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>3.8461538461538463</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>1.2820512820512822</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>234</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>33.606557377049178</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>9.0163934426229506</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>56.557377049180324</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>0.81967213114754101</v>
       </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>32.584269662921351</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>17.977528089887642</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>45.786516853932582</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>2.808988764044944</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>0.84269662921348309</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="3">
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>32.258064516129032</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>3.225806451612903</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>63.87096774193548</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
         <v>0.64516129032258063</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>29.741379310344829</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>4.7413793103448274</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>64.224137931034477</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>0.43103448275862066</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>0.86206896551724133</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>30.749354005167959</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>4.1343669250645991</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>64.082687338501287</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>0.25839793281653745</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>0.77519379844961245</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="3">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>21.621621621621621</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>1.8018018018018018</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>73.873873873873876</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
         <v>2.7027027027027026</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>39.705882352941174</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>9.9264705882352935</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>48.529411764705884</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>1.1029411764705883</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>0.73529411764705888</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>34.464751958224547</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>7.5718015665796345</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>55.874673629242821</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>0.78328981723237601</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>1.3054830287206267</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>20</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>40</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>31.47632311977716</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>3.6211699164345403</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>61.83844011142061</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>1.392757660167131</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>1.6713091922005572</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>359</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>31.550802139037433</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>4.2780748663101607</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>60.962566844919785</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>1.3368983957219251</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>1.8716577540106951</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="3">
         <v>374</v>
       </c>
     </row>
